--- a/documentation/Use Cases or Stories.xlsx
+++ b/documentation/Use Cases or Stories.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="cdk7LbkimMG4KqA3hTw3aiFuXZ9AR0tlYxuaU2tcUhc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="+4+MdxwJWSAxg+rYxdPsyVXBZXA4m/dn4lNmxsnwcrY="/>
     </ext>
   </extLst>
 </workbook>

--- a/documentation/Use Cases or Stories.xlsx
+++ b/documentation/Use Cases or Stories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SERVERMS30\usuarios$\secundaria\nicolas.philippe\Documents\GitHub\internal\Project Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SERVERMS30\usuarios$\secundaria\nicolas.philippe\Documents\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1AEDFF-A138-4DBE-9376-A04889A59142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF496F98-0242-4F2A-9395-888DE97A1861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>Methodology</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Player's name is updated in the system</t>
   </si>
   <si>
-    <t>1. Player accesses the player name management menu. 2. Player creates a new name, selects an existing name, corrects a name, or deletes a name. 3. Application updates the player name in the database.</t>
-  </si>
-  <si>
     <t>If the player enters an invalid name, the application displays an error message.</t>
   </si>
   <si>
@@ -132,12 +129,6 @@
     <t>Story 2</t>
   </si>
   <si>
-    <t>As a player, I want to create, select, correct, and delete my name so that my identity is managed within the game</t>
-  </si>
-  <si>
-    <t>Player name management menu is accessible. Player can create a new name. Player can select an existing name. Player can correct an existing name. Player can delete an existing name. Application updates the player name in the database.</t>
-  </si>
-  <si>
     <t>Story 3</t>
   </si>
   <si>
@@ -196,6 +187,12 @@
   </si>
   <si>
     <t>1. Player accesses the player name management menu. 2. Player creates a new name, selects an existing name, corrects a name. 3. Application updates the player name in the database.</t>
+  </si>
+  <si>
+    <t>As a player, I want to create, select, correct my name so that my identity is managed within the game</t>
+  </si>
+  <si>
+    <t>Player name management menu is accessible. Player can create a new name. Player can select an existing name. Player can correct an existing name. Application updates the player name in the database.</t>
   </si>
 </sst>
 </file>
@@ -549,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="132" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -648,10 +645,10 @@
         <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>17</v>
@@ -660,25 +657,25 @@
     <row r="6" spans="1:9" ht="198" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
@@ -686,171 +683,171 @@
     </row>
     <row r="7" spans="1:9" ht="99" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="181.5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="99" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -895,10 +892,10 @@
         <v>20</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>17</v>
@@ -907,25 +904,25 @@
     <row r="15" spans="1:9" ht="198" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>17</v>
